--- a/Vtiger_CRM/src/test/resource/vtiger.xlsx
+++ b/Vtiger_CRM/src/test/resource/vtiger.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="5960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Contact" sheetId="4" r:id="rId4"/>
     <sheet name="Contact_Data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -582,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
